--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2951.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2951.xlsx
@@ -354,7 +354,7 @@
         <v>2.828908744975276</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.15678843914589</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2951.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2951.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.156536704965552</v>
+        <v>0.7730716466903687</v>
       </c>
       <c r="B1">
-        <v>2.828908744975276</v>
+        <v>0.6008635759353638</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.607658624649048</v>
       </c>
       <c r="D1">
-        <v>2.15678843914589</v>
+        <v>3.515075922012329</v>
       </c>
       <c r="E1">
-        <v>1.24521868737674</v>
+        <v>0.9648707509040833</v>
       </c>
     </row>
   </sheetData>
